--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2213250.739966078</v>
+        <v>-2216109.548120328</v>
       </c>
     </row>
     <row r="7">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>114.155773329361</v>
       </c>
       <c r="F2" t="n">
-        <v>12.02733775987845</v>
+        <v>210.9559183406456</v>
       </c>
       <c r="G2" t="n">
         <v>255.0853779233022</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>255.0853779233022</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>255.0853779233022</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>112.3032570713464</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.10067677215209</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>132.4168693425909</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.38904295526282</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>219.4450108596164</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2792495146817833</v>
-      </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21.02627191808392</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>182.8930627139719</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.1188673714096</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>190.547528454475</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>79.19184946062333</v>
+        <v>382.7093367189032</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6578039426845</v>
+        <v>11.65780394268448</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>69.95458801850472</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.9611458040276</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.140152850729</v>
       </c>
       <c r="U8" t="n">
         <v>251.0540582220405</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3933057711207</v>
+        <v>23.40491590545572</v>
       </c>
       <c r="H9" t="n">
-        <v>93.40050789710139</v>
+        <v>93.40050789710146</v>
       </c>
       <c r="I9" t="n">
-        <v>22.2511967641075</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.4588498516407</v>
+        <v>135.4588498516408</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3040082153011</v>
+        <v>192.3040082153012</v>
       </c>
       <c r="U9" t="n">
-        <v>91.57349207016044</v>
+        <v>225.8130786999163</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3559876391771</v>
       </c>
       <c r="H10" t="n">
         <v>147.6906097669175</v>
       </c>
       <c r="I10" t="n">
-        <v>106.2818148601345</v>
+        <v>106.2818148601347</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.10351093931047</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.5231514382189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9597157186236</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2298479899846</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>102.4117723370115</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>146.6281161973744</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>206.6447768750174</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.2445652598082</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695518</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487398</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.217654156269</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="C2" t="n">
-        <v>290.217654156269</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="D2" t="n">
-        <v>290.217654156269</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="E2" t="n">
-        <v>290.217654156269</v>
+        <v>491.1556143388621</v>
       </c>
       <c r="F2" t="n">
         <v>278.0688281361897</v>
@@ -4328,25 +4328,25 @@
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>41.64108022724748</v>
+        <v>101.5286049718923</v>
       </c>
       <c r="K2" t="n">
-        <v>124.2042348018398</v>
+        <v>184.0917595464847</v>
       </c>
       <c r="L2" t="n">
-        <v>263.532890643093</v>
+        <v>323.4204153877379</v>
       </c>
       <c r="M2" t="n">
-        <v>450.2323034685007</v>
+        <v>510.1198282131455</v>
       </c>
       <c r="N2" t="n">
-        <v>644.5665163604831</v>
+        <v>704.4540411051279</v>
       </c>
       <c r="O2" t="n">
-        <v>814.7355416774426</v>
+        <v>874.6230664220874</v>
       </c>
       <c r="P2" t="n">
-        <v>925.4698669269691</v>
+        <v>985.3573916716139</v>
       </c>
       <c r="Q2" t="n">
         <v>1020.341511693209</v>
@@ -4355,25 +4355,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S2" t="n">
-        <v>1020.341511693209</v>
+        <v>864.126474190037</v>
       </c>
       <c r="T2" t="n">
-        <v>805.54164996092</v>
+        <v>864.126474190037</v>
       </c>
       <c r="U2" t="n">
-        <v>805.54164996092</v>
+        <v>864.126474190037</v>
       </c>
       <c r="V2" t="n">
-        <v>547.8796520585945</v>
+        <v>864.126474190037</v>
       </c>
       <c r="W2" t="n">
-        <v>547.8796520585945</v>
+        <v>864.126474190037</v>
       </c>
       <c r="X2" t="n">
-        <v>290.217654156269</v>
+        <v>864.126474190037</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.217654156269</v>
+        <v>606.4644762877115</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.8598595149912</v>
+        <v>352.687494545577</v>
       </c>
       <c r="C3" t="n">
-        <v>20.40683023386418</v>
+        <v>352.687494545577</v>
       </c>
       <c r="D3" t="n">
-        <v>20.40683023386418</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="E3" t="n">
-        <v>20.40683023386418</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="F3" t="n">
-        <v>20.40683023386418</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="G3" t="n">
-        <v>20.40683023386418</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="H3" t="n">
-        <v>20.40683023386418</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I3" t="n">
         <v>20.40683023386418</v>
       </c>
       <c r="J3" t="n">
-        <v>20.40683023386418</v>
+        <v>73.37394681938768</v>
       </c>
       <c r="K3" t="n">
-        <v>88.01464989722122</v>
+        <v>140.9817664827447</v>
       </c>
       <c r="L3" t="n">
-        <v>225.2442479129152</v>
+        <v>278.2113644984387</v>
       </c>
       <c r="M3" t="n">
-        <v>404.74158426752</v>
+        <v>530.7458886425079</v>
       </c>
       <c r="N3" t="n">
-        <v>603.3983259201847</v>
+        <v>729.4026302951726</v>
       </c>
       <c r="O3" t="n">
-        <v>762.9106385889453</v>
+        <v>888.9149429639332</v>
       </c>
       <c r="P3" t="n">
-        <v>871.6002661162441</v>
+        <v>997.604570491232</v>
       </c>
       <c r="Q3" t="n">
         <v>1020.341511693209</v>
@@ -4434,25 +4434,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.341511693209</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="T3" t="n">
-        <v>823.3522158532966</v>
+        <v>673.8854267159313</v>
       </c>
       <c r="U3" t="n">
-        <v>823.3522158532966</v>
+        <v>560.4477933105309</v>
       </c>
       <c r="V3" t="n">
-        <v>588.2001076215538</v>
+        <v>560.4477933105309</v>
       </c>
       <c r="W3" t="n">
-        <v>570.9266967405921</v>
+        <v>560.4477933105309</v>
       </c>
       <c r="X3" t="n">
-        <v>363.0751965350593</v>
+        <v>560.4477933105309</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.0751965350593</v>
+        <v>352.687494545577</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.3430131617711</v>
+        <v>617.9004677194391</v>
       </c>
       <c r="C4" t="n">
-        <v>20.40683023386418</v>
+        <v>448.9642847915322</v>
       </c>
       <c r="D4" t="n">
-        <v>20.40683023386418</v>
+        <v>448.9642847915322</v>
       </c>
       <c r="E4" t="n">
-        <v>20.40683023386418</v>
+        <v>301.0511912091391</v>
       </c>
       <c r="F4" t="n">
-        <v>20.40683023386418</v>
+        <v>154.1612437112288</v>
       </c>
       <c r="G4" t="n">
-        <v>20.40683023386418</v>
+        <v>154.1612437112288</v>
       </c>
       <c r="H4" t="n">
         <v>20.40683023386418</v>
@@ -4510,28 +4510,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="W4" t="n">
-        <v>819.7736080335583</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="X4" t="n">
-        <v>591.7840571355409</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.9914779920108</v>
+        <v>799.5489325496789</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067967</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>41.28849413961871</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>41.28849413961871</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4565,16 +4565,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>307.6661507067967</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067967</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671.4952208241843</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>497.0421915430574</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>348.1077818818061</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>188.8703268763506</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>42.33576890323556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>42.33576890323556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4647,22 +4647,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>839.7105578442523</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="Y6" t="n">
-        <v>839.7105578442523</v>
+        <v>644.0188700600104</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2577368622517</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4753,22 +4753,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="W7" t="n">
-        <v>607.6987808360216</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="X7" t="n">
-        <v>607.6987808360216</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9062016924914</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>973.2964444855586</v>
+        <v>1201.663231821277</v>
       </c>
       <c r="C8" t="n">
-        <v>973.2964444855586</v>
+        <v>832.7007148808652</v>
       </c>
       <c r="D8" t="n">
-        <v>615.0307458788081</v>
+        <v>832.7007148808652</v>
       </c>
       <c r="E8" t="n">
-        <v>615.0307458788081</v>
+        <v>446.912462282621</v>
       </c>
       <c r="F8" t="n">
-        <v>535.0389787468654</v>
+        <v>60.33737468776929</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2230151683961</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="H8" t="n">
-        <v>119.2230151683961</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="I8" t="n">
-        <v>48.5618151497045</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="J8" t="n">
-        <v>175.5919586551152</v>
+        <v>175.5919586551137</v>
       </c>
       <c r="K8" t="n">
-        <v>416.7157328480294</v>
+        <v>416.7157328480262</v>
       </c>
       <c r="L8" t="n">
-        <v>752.7528582148934</v>
+        <v>752.7528582148877</v>
       </c>
       <c r="M8" t="n">
-        <v>1158.328345051922</v>
+        <v>1158.328345051913</v>
       </c>
       <c r="N8" t="n">
-        <v>1575.080275660923</v>
+        <v>1575.080275660912</v>
       </c>
       <c r="O8" t="n">
-        <v>1955.272044794133</v>
+        <v>1955.272044794121</v>
       </c>
       <c r="P8" t="n">
-        <v>2245.255922842923</v>
+        <v>2245.255922842908</v>
       </c>
       <c r="Q8" t="n">
-        <v>2414.848991985971</v>
+        <v>2414.848991985955</v>
       </c>
       <c r="R8" t="n">
-        <v>2428.090757485225</v>
+        <v>2428.090757485208</v>
       </c>
       <c r="S8" t="n">
-        <v>2300.857276875096</v>
+        <v>2428.090757485208</v>
       </c>
       <c r="T8" t="n">
-        <v>2300.857276875096</v>
+        <v>2218.858279858209</v>
       </c>
       <c r="U8" t="n">
-        <v>2047.267319075055</v>
+        <v>1965.268322058168</v>
       </c>
       <c r="V8" t="n">
-        <v>1716.204431731484</v>
+        <v>1965.268322058168</v>
       </c>
       <c r="W8" t="n">
-        <v>1363.43577646137</v>
+        <v>1965.268322058168</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.43577646137</v>
+        <v>1591.802563797089</v>
       </c>
       <c r="Y8" t="n">
-        <v>973.2964444855586</v>
+        <v>1201.663231821277</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3020856891679</v>
+        <v>795.7065436388925</v>
       </c>
       <c r="C9" t="n">
-        <v>756.849056408041</v>
+        <v>621.2535143577655</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9146467467897</v>
+        <v>472.3191046965143</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6771917413342</v>
+        <v>313.0816496910588</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1426337682192</v>
+        <v>166.5470917179437</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3817188478953</v>
+        <v>142.9057625205137</v>
       </c>
       <c r="H9" t="n">
-        <v>71.03777147708581</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="I9" t="n">
-        <v>48.5618151497045</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="J9" t="n">
-        <v>105.4022514209306</v>
+        <v>230.2323764079344</v>
       </c>
       <c r="K9" t="n">
-        <v>280.7064351448679</v>
+        <v>405.5365601318704</v>
       </c>
       <c r="L9" t="n">
-        <v>762.6187634543788</v>
+        <v>687.5772101838239</v>
       </c>
       <c r="M9" t="n">
-        <v>1111.103767239239</v>
+        <v>1036.062213968682</v>
       </c>
       <c r="N9" t="n">
-        <v>1483.22077704054</v>
+        <v>1408.179223769982</v>
       </c>
       <c r="O9" t="n">
-        <v>2084.173239518133</v>
+        <v>1876.196724659628</v>
       </c>
       <c r="P9" t="n">
-        <v>2320.219368076737</v>
+        <v>2112.24285321823</v>
       </c>
       <c r="Q9" t="n">
-        <v>2428.090757485225</v>
+        <v>2428.090757485208</v>
       </c>
       <c r="R9" t="n">
-        <v>2428.090757485225</v>
+        <v>2428.090757485208</v>
       </c>
       <c r="S9" t="n">
-        <v>2291.263636422962</v>
+        <v>2291.263636422945</v>
       </c>
       <c r="T9" t="n">
-        <v>2097.017163478213</v>
+        <v>2097.017163478196</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.518686639667</v>
+        <v>1868.923144589392</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.366578407924</v>
+        <v>1633.771036357649</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.129221679723</v>
+        <v>1379.533679629447</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27772147419</v>
+        <v>1171.682179423914</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.517422709236</v>
+        <v>963.9218806589606</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.152440143535</v>
+        <v>789.9852454642762</v>
       </c>
       <c r="C10" t="n">
-        <v>455.2162572156282</v>
+        <v>621.0490625363693</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0996178032924</v>
+        <v>621.0490625363693</v>
       </c>
       <c r="E10" t="n">
-        <v>305.0996178032924</v>
+        <v>473.1359689539763</v>
       </c>
       <c r="F10" t="n">
-        <v>305.0996178032924</v>
+        <v>473.1359689539763</v>
       </c>
       <c r="G10" t="n">
-        <v>305.0996178032924</v>
+        <v>305.0996178032923</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9171836952949</v>
+        <v>155.9171836952947</v>
       </c>
       <c r="I10" t="n">
-        <v>48.5618151497045</v>
+        <v>48.56181514970416</v>
       </c>
       <c r="J10" t="n">
-        <v>70.5742022418772</v>
+        <v>70.57420224187643</v>
       </c>
       <c r="K10" t="n">
-        <v>236.5841528860256</v>
+        <v>236.5841528860241</v>
       </c>
       <c r="L10" t="n">
-        <v>504.5461690879238</v>
+        <v>504.5461690879214</v>
       </c>
       <c r="M10" t="n">
-        <v>797.4636672203035</v>
+        <v>797.4636672203001</v>
       </c>
       <c r="N10" t="n">
-        <v>1088.850858371748</v>
+        <v>1088.850858371744</v>
       </c>
       <c r="O10" t="n">
-        <v>1341.977796269164</v>
+        <v>1341.977796269159</v>
       </c>
       <c r="P10" t="n">
-        <v>1535.050938441313</v>
+        <v>1535.050938441307</v>
       </c>
       <c r="Q10" t="n">
-        <v>1585.289694158863</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="R10" t="n">
-        <v>1561.952814422186</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="S10" t="n">
-        <v>1364.454681656308</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="T10" t="n">
-        <v>1141.263049617294</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="U10" t="n">
-        <v>852.1419910415524</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="V10" t="n">
-        <v>852.1419910415524</v>
+        <v>1585.289694158857</v>
       </c>
       <c r="W10" t="n">
-        <v>852.1419910415524</v>
+        <v>1295.872524121896</v>
       </c>
       <c r="X10" t="n">
-        <v>624.152440143535</v>
+        <v>1192.426289438046</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.152440143535</v>
+        <v>971.6337102945159</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,34 +5051,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>613.6374994204294</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380363</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380363</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,13 +5504,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,19 +5771,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,7 +6412,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,34 +6479,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011263</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,16 +6713,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,13 +7160,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7670,25 +7670,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.49244923701501</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.49244923701495</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>59.73534314710362</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>73.77493716107517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>127.2770751262504</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>201.8905840985413</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>285.6140329968751</v>
+        <v>151.3362940191529</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>24.59532647964215</v>
+        <v>24.59532647964261</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>267.7745967429008</v>
       </c>
       <c r="F2" t="n">
-        <v>94.95072595627185</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>157.8315260226346</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>72.66688054683266</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>114.6457227551668</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>20.29522732664162</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>18.89602209489445</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>11.93987647707743</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.587414922129085</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405042</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1146728.625275701</v>
+        <v>1146728.6252757</v>
       </c>
     </row>
     <row r="3">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829654</v>
+        <v>50775.64226829651</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26347,13 +26347,13 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>657366.2625808548</v>
       </c>
       <c r="C3" t="n">
-        <v>21526.81581402957</v>
+        <v>21526.81581402947</v>
       </c>
       <c r="D3" t="n">
-        <v>357247.7748456948</v>
+        <v>357247.7748456907</v>
       </c>
       <c r="E3" t="n">
-        <v>539509.6920798678</v>
+        <v>539509.6920798722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66741.55862136438</v>
+        <v>66741.55862136462</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863282</v>
+        <v>2220.70032286318</v>
       </c>
       <c r="L3" t="n">
-        <v>106316.0878658438</v>
+        <v>106316.0878658427</v>
       </c>
       <c r="M3" t="n">
-        <v>140971.1139454978</v>
+        <v>140971.1139454989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.992628863779828e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169849.096693577</v>
+        <v>169849.0966935769</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>144085.4293086921</v>
+        <v>144085.4293086933</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731959</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732035</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732065</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.1716898254</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982538</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982547</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90300.14304378183</v>
+        <v>90300.1430437815</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-838514.2869712418</v>
+        <v>-838874.3699869592</v>
       </c>
       <c r="C6" t="n">
-        <v>-269750.3536767059</v>
+        <v>-269750.3536767058</v>
       </c>
       <c r="D6" t="n">
-        <v>-530055.2144583475</v>
+        <v>-530055.2144583443</v>
       </c>
       <c r="E6" t="n">
-        <v>-588213.5393537565</v>
+        <v>-588248.2772791965</v>
       </c>
       <c r="F6" t="n">
-        <v>-48703.84727388866</v>
+        <v>-48738.58519932425</v>
       </c>
       <c r="G6" t="n">
-        <v>-48703.84727388866</v>
+        <v>-48738.58519932433</v>
       </c>
       <c r="H6" t="n">
-        <v>-48703.84727388866</v>
+        <v>-48738.58519932432</v>
       </c>
       <c r="I6" t="n">
-        <v>-48703.84727388864</v>
+        <v>-48738.58519932435</v>
       </c>
       <c r="J6" t="n">
-        <v>-115445.4058952531</v>
+        <v>-115480.143820689</v>
       </c>
       <c r="K6" t="n">
-        <v>-50924.54759675192</v>
+        <v>-50959.28552218764</v>
       </c>
       <c r="L6" t="n">
-        <v>-164010.2426697634</v>
+        <v>-164010.2426697623</v>
       </c>
       <c r="M6" t="n">
-        <v>-198665.2687494174</v>
+        <v>-198665.2687494185</v>
       </c>
       <c r="N6" t="n">
-        <v>-57694.15480391957</v>
+        <v>-57694.15480391958</v>
       </c>
       <c r="O6" t="n">
-        <v>-57694.15480391957</v>
+        <v>-57694.15480391971</v>
       </c>
       <c r="P6" t="n">
-        <v>-57694.15480391959</v>
+        <v>-57694.15480391963</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>906.6772261470829</v>
+        <v>906.6772261470795</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,43 +26793,43 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>607.0226893713062</v>
+        <v>607.022689371302</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203958</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.124078607972479e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5789134314133</v>
+        <v>20.57891343141318</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6222123776046</v>
+        <v>292.6222123776013</v>
       </c>
       <c r="E3" t="n">
-        <v>461.2982741945908</v>
+        <v>461.2982741945947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="D4" t="n">
-        <v>343.3088093698001</v>
+        <v>343.3088093697959</v>
       </c>
       <c r="E4" t="n">
-        <v>565.6855987283423</v>
+        <v>565.6855987283466</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>255.0853779233018</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078204292</v>
+        <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093698001</v>
+        <v>343.3088093697959</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283423</v>
+        <v>565.6855987283466</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093698001</v>
+        <v>343.3088093697959</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283423</v>
+        <v>565.6855987283466</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>299.8979820255611</v>
+        <v>195.9201274010659</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>113.5541425425994</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>234.5943063887675</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>217.1339553813282</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E5" t="n">
-        <v>381.65112055758</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>78.45304835312582</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>22.87992248950553</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>26.09547850815628</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>95.97546988211604</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>327.6841962810881</v>
+        <v>24.16670902280828</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>302.1461261669076</v>
+        <v>302.1461261669078</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>69.95458801850523</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.9611458040279</v>
       </c>
       <c r="T8" t="n">
-        <v>207.1401528507289</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>111.988389865665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.25119676410776</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>134.2395866297558</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3559876391771</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>80.67470731452343</v>
+        <v>103.7782182538342</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.523151438219</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9597157186237</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2298479899846</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.2978830520257</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28858,16 +28858,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-4.513004301775757e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.230444731564992e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29095,16 +29095,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-3.562373076769699e-13</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-4.513004301775757e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.230444731564992e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.644933572450582</v>
+        <v>3.644933572450568</v>
       </c>
       <c r="H8" t="n">
-        <v>37.32867594885953</v>
+        <v>37.32867594885939</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5213015519012</v>
+        <v>140.5213015519007</v>
       </c>
       <c r="J8" t="n">
-        <v>309.3591807947778</v>
+        <v>309.3591807947767</v>
       </c>
       <c r="K8" t="n">
-        <v>463.6492189166111</v>
+        <v>463.6492189166094</v>
       </c>
       <c r="L8" t="n">
-        <v>575.1978547344956</v>
+        <v>575.1978547344935</v>
       </c>
       <c r="M8" t="n">
-        <v>640.0184421535637</v>
+        <v>640.0184421535613</v>
       </c>
       <c r="N8" t="n">
-        <v>650.374609666289</v>
+        <v>650.3746096662866</v>
       </c>
       <c r="O8" t="n">
-        <v>614.1303014552335</v>
+        <v>614.1303014552311</v>
       </c>
       <c r="P8" t="n">
-        <v>524.1460038853596</v>
+        <v>524.1460038853577</v>
       </c>
       <c r="Q8" t="n">
-        <v>393.611820321973</v>
+        <v>393.6118203219715</v>
       </c>
       <c r="R8" t="n">
-        <v>228.9610585204491</v>
+        <v>228.9610585204482</v>
       </c>
       <c r="S8" t="n">
-        <v>83.05892378221772</v>
+        <v>83.05892378221741</v>
       </c>
       <c r="T8" t="n">
-        <v>15.95569671340243</v>
+        <v>15.95569671340237</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2915946857960465</v>
+        <v>0.2915946857960454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.950211392089952</v>
+        <v>1.950211392089945</v>
       </c>
       <c r="H9" t="n">
-        <v>18.83493633939507</v>
+        <v>18.834936339395</v>
       </c>
       <c r="I9" t="n">
-        <v>67.14543608730757</v>
+        <v>67.14543608730732</v>
       </c>
       <c r="J9" t="n">
-        <v>184.2522087588143</v>
+        <v>184.2522087588136</v>
       </c>
       <c r="K9" t="n">
-        <v>314.9163720288411</v>
+        <v>314.9163720288399</v>
       </c>
       <c r="L9" t="n">
-        <v>423.4439252868995</v>
+        <v>423.4439252868979</v>
       </c>
       <c r="M9" t="n">
-        <v>494.1390882501601</v>
+        <v>494.1390882501583</v>
       </c>
       <c r="N9" t="n">
-        <v>507.217479559395</v>
+        <v>507.2174795593932</v>
       </c>
       <c r="O9" t="n">
-        <v>464.0049008188756</v>
+        <v>464.0049008188738</v>
       </c>
       <c r="P9" t="n">
-        <v>372.4048403018085</v>
+        <v>372.4048403018071</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.942773488535</v>
+        <v>248.942773488534</v>
       </c>
       <c r="R9" t="n">
-        <v>121.0841774843218</v>
+        <v>121.0841774843213</v>
       </c>
       <c r="S9" t="n">
-        <v>36.22432125219711</v>
+        <v>36.22432125219697</v>
       </c>
       <c r="T9" t="n">
-        <v>7.860720479520461</v>
+        <v>7.860720479520432</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1283033810585495</v>
+        <v>0.128303381058549</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.634991719281625</v>
+        <v>1.634991719281619</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53656274052209</v>
+        <v>14.53656274052204</v>
       </c>
       <c r="I10" t="n">
-        <v>49.16866006712379</v>
+        <v>49.1686600671236</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5939145532109</v>
+        <v>115.5939145532104</v>
       </c>
       <c r="K10" t="n">
-        <v>189.956310658356</v>
+        <v>189.9563106583553</v>
       </c>
       <c r="L10" t="n">
-        <v>243.0786779739245</v>
+        <v>243.0786779739236</v>
       </c>
       <c r="M10" t="n">
-        <v>256.2923837779368</v>
+        <v>256.2923837779359</v>
       </c>
       <c r="N10" t="n">
-        <v>250.1983237333419</v>
+        <v>250.198323733341</v>
       </c>
       <c r="O10" t="n">
-        <v>231.0986477399155</v>
+        <v>231.0986477399147</v>
       </c>
       <c r="P10" t="n">
-        <v>197.7448166665702</v>
+        <v>197.7448166665695</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.9082611482095</v>
+        <v>136.908261148209</v>
       </c>
       <c r="R10" t="n">
-        <v>73.51517312333559</v>
+        <v>73.5151731233353</v>
       </c>
       <c r="S10" t="n">
-        <v>28.4934465987534</v>
+        <v>28.49344659875329</v>
       </c>
       <c r="T10" t="n">
-        <v>6.98587370965785</v>
+        <v>6.985873709657823</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08918136650627055</v>
+        <v>0.0891813665062702</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>301.644515672456</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732306</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>81.94118660406885</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
@@ -34717,7 +34717,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.82994420832314</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>53.50213796517525</v>
       </c>
       <c r="K3" t="n">
         <v>68.29072693268387</v>
@@ -34784,7 +34784,7 @@
         <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="N3" t="n">
         <v>200.663375406732</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.2436824009746</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.3132762680916</v>
+        <v>128.3132762680904</v>
       </c>
       <c r="K8" t="n">
-        <v>243.5593678716305</v>
+        <v>243.5593678716288</v>
       </c>
       <c r="L8" t="n">
-        <v>339.4314397645084</v>
+        <v>339.4314397645063</v>
       </c>
       <c r="M8" t="n">
-        <v>409.672208926291</v>
+        <v>409.6722089262886</v>
       </c>
       <c r="N8" t="n">
-        <v>420.961546069698</v>
+        <v>420.9615460696957</v>
       </c>
       <c r="O8" t="n">
-        <v>384.0320900335468</v>
+        <v>384.0320900335444</v>
       </c>
       <c r="P8" t="n">
-        <v>292.9130081300901</v>
+        <v>292.9130081300881</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.3061304475235</v>
+        <v>171.3061304475221</v>
       </c>
       <c r="R8" t="n">
-        <v>13.37552070631693</v>
+        <v>13.37552070631608</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.41458209214761</v>
+        <v>183.5056174325558</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0749330544821</v>
+        <v>177.0749330544809</v>
       </c>
       <c r="L9" t="n">
-        <v>486.7801296055666</v>
+        <v>284.8895455070237</v>
       </c>
       <c r="M9" t="n">
-        <v>352.0050543281418</v>
+        <v>352.00505432814</v>
       </c>
       <c r="N9" t="n">
-        <v>375.8757674760617</v>
+        <v>375.8757674760599</v>
       </c>
       <c r="O9" t="n">
-        <v>607.0226893713062</v>
+        <v>472.7449503935823</v>
       </c>
       <c r="P9" t="n">
-        <v>238.4304328874783</v>
+        <v>238.4304328874769</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.9609994025134</v>
+        <v>319.0382871383616</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.23473443653809</v>
+        <v>22.23473443653765</v>
       </c>
       <c r="K10" t="n">
-        <v>167.6868188324731</v>
+        <v>167.6868188324724</v>
       </c>
       <c r="L10" t="n">
-        <v>270.6687032342406</v>
+        <v>270.6687032342397</v>
       </c>
       <c r="M10" t="n">
-        <v>295.8762607397774</v>
+        <v>295.8762607397765</v>
       </c>
       <c r="N10" t="n">
-        <v>294.3304961125705</v>
+        <v>294.3304961125696</v>
       </c>
       <c r="O10" t="n">
-        <v>255.6837756539552</v>
+        <v>255.6837756539544</v>
       </c>
       <c r="P10" t="n">
-        <v>195.0233759314637</v>
+        <v>195.023375931463</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.74621789651512</v>
+        <v>50.74621789651461</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>159.0482712280115</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287862</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
